--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,88 +391,374 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Doveton</t>
+          <t>Bermagui NSW</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
+          <t>Bermis Beachside cafe  2/4 Lamont Street, Bermagui NSW</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>26/12/20 6:30pm</t>
+          <t>30/12/2020 9:00am-10:00am</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Case attended English service</t>
+          <t>Case dined in cafe</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Leongatha</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+          <t>Sons of Mary Restaurant  14 Spink St, Brighton VIC 3186</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>27/12/2020 4:00pm-7:30pm</t>
+          <t>24/12/2020 10:00am-11:05am</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Case worked in store</t>
+          <t>Case ate at restaurant</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Leongatha</t>
+          <t>Doveton</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>27/12/2020 7:30am-11:30am</t>
+          <t>26/12/20 6:30pm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case worked in store</t>
+          <t>Case attended English service</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Eden NSW</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Great Southern Hotel  158 Imlay Street, Eden NSW</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>30/12/2020 5:00pm-6:00pm</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Case had dinner here</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Lakes Entrance</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>29/12/2020 09:30am-10:45am</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Case ate in cafe</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lakes Entrance</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>29/12/2020 05:30pm-05:50pm</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Case in hotel bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lakes Entrance</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>29/12/2020 03:30pm-04:30pm</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Case visited pool area</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lakes Entrance</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>29/12/2020 2:30pm-5:50pm</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Case attended site</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lakes Entrance</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>29/12/2020 1:00pm-2:00pm</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Case visited vineyard</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Leongatha</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>26/12/2020 5:30pm-7:30pm</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Case worked in store</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Leongatha</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>27/12/2020 4:00pm-7:30pm</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Case worked in store</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>21/12/2020 8:00pm-9:30pm</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Case attended cafe</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>29/12/2020 6:00pm-7:00pm</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Case attended restaurant</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Moorabbin</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Minnie Miny Mo Cafe  8 Station Street, Moorabbin</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>24/12/2020 11:00am-12:00pm</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Case attended cafe</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Oakleigh</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>28/12/20 7:30pm-8:15pm</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Case dined in restaurant</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Southbank</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Left Bank Melbourne Restaurant and Cocktail Bar  1 Southbank Boulevard, Southbank</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>25/12/2020 12:00pm-02:30pm</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Case attended bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Southbank</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>23/112/2020 1:00pm-1:30pm</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Case attended restaurant</t>
         </is>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,88 +391,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bermagui NSW</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bermis Beachside cafe  2/4 Lamont Street, Bermagui NSW</t>
+          <t>Sons of Mary Restaurant  14 Spink St, Brighton VIC 3186</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30/12/2020 9:00am-10:00am</t>
+          <t>24/12/2020 10:00am-11:05am</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Case dined in cafe</t>
+          <t>Case ate at restaurant</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Doveton</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sons of Mary Restaurant  14 Spink St, Brighton VIC 3186</t>
+          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>24/12/2020 10:00am-11:05am</t>
+          <t>26/12/20 6:30pm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Case ate at restaurant</t>
+          <t>Case attended English service</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Doveton</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
+          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>26/12/20 6:30pm</t>
+          <t>29/12/2020 09:30am-10:45am</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case attended English service</t>
+          <t>Case ate in cafe</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Eden NSW</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Great Southern Hotel  158 Imlay Street, Eden NSW</t>
+          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>30/12/2020 5:00pm-6:00pm</t>
+          <t>29/12/2020 05:30pm-05:50pm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Case had dinner here</t>
+          <t>Case in hotel bar</t>
         </is>
       </c>
     </row>
@@ -484,17 +484,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29/12/2020 09:30am-10:45am</t>
+          <t>29/12/2020 03:30pm-04:30pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case ate in cafe</t>
+          <t>Case visited pool area</t>
         </is>
       </c>
     </row>
@@ -506,17 +506,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>29/12/2020 05:30pm-05:50pm</t>
+          <t>30/12/2020 9:30am-10:30am</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Case in hotel bar</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
@@ -528,17 +528,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>29/12/2020 03:30pm-04:30pm</t>
+          <t>29/12/2020 2:30pm-5:50pm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Case visited pool area</t>
+          <t>Case attended site</t>
         </is>
       </c>
     </row>
@@ -550,39 +550,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>29/12/2020 2:30pm-5:50pm</t>
+          <t>29/12/2020 1:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case attended site</t>
+          <t>Case visited vineyard</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Leongatha</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
+          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>29/12/2020 1:00pm-2:00pm</t>
+          <t>26/12/2020 5:30pm-7:30pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case visited vineyard</t>
+          <t>Case worked in store</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>26/12/2020 5:30pm-7:30pm</t>
+          <t>27/12/2020 4:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -611,22 +611,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Leongatha</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>27/12/2020 4:00pm-7:30pm</t>
+          <t>21/12/2020 8:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case worked in store</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
@@ -638,83 +638,83 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
+          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21/12/2020 8:00pm-9:30pm</t>
+          <t>29/12/2020 6:00pm-7:00pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case attended restaurant</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
+          <t>Minnie Miny Mo Cafe  8 Station Street, Moorabbin</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>29/12/2020 6:00pm-7:00pm</t>
+          <t>24/12/2020 11:00am-12:00pm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Case attended restaurant</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Oakleigh</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Minnie Miny Mo Cafe  8 Station Street, Moorabbin</t>
+          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>24/12/2020 11:00am-12:00pm</t>
+          <t>28/12/20 7:30pm-8:15pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case dined in restaurant</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Left Bank Melbourne Restaurant and Cocktail Bar  1 Southbank Boulevard, Southbank</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>28/12/20 7:30pm-8:15pm</t>
+          <t>25/12/2020 12:00pm-02:30pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case dined in restaurant</t>
+          <t>Case attended bar</t>
         </is>
       </c>
     </row>
@@ -726,37 +726,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Left Bank Melbourne Restaurant and Cocktail Bar  1 Southbank Boulevard, Southbank</t>
+          <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>25/12/2020 12:00pm-02:30pm</t>
+          <t>23/112/2020 1:00pm-1:30pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
-        <is>
-          <t>Case attended bar</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Southbank</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>23/112/2020 1:00pm-1:30pm</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
         <is>
           <t>Case attended restaurant</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,17 +462,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>29/12/2020 05:30pm-05:50pm</t>
+          <t>29/12/2020 7:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Case in hotel bar</t>
+          <t>Case attended carnival</t>
         </is>
       </c>
     </row>
@@ -484,17 +484,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29/12/2020 03:30pm-04:30pm</t>
+          <t>29/12/2020 05:30pm-05:50pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case visited pool area</t>
+          <t>Case in hotel bar</t>
         </is>
       </c>
     </row>
@@ -506,17 +506,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>30/12/2020 9:30am-10:30am</t>
+          <t>29/12/2020 03:30pm-04:30pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case visited pool area</t>
         </is>
       </c>
     </row>
@@ -528,17 +528,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>29/12/2020 2:30pm-5:50pm</t>
+          <t>30/12/2020 9:30am-10:30am</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Case attended site</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
@@ -550,39 +550,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
+          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>29/12/2020 1:00pm-2:00pm</t>
+          <t>29/12/2020 2:30pm-5:50pm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case visited vineyard</t>
+          <t>Case attended site</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Leongatha</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>26/12/2020 5:30pm-7:30pm</t>
+          <t>29/12/2020 1:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case worked in store</t>
+          <t>Case visited vineyard</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>27/12/2020 4:00pm-7:30pm</t>
+          <t>26/12/2020 5:30pm-7:30pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -611,22 +611,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Leongatha</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
+          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21/12/2020 8:00pm-9:30pm</t>
+          <t>27/12/2020 4:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case worked in store</t>
         </is>
       </c>
     </row>
@@ -638,83 +638,83 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
+          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>29/12/2020 6:00pm-7:00pm</t>
+          <t>28/12/2020 8:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case attended restaurant</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Minnie Miny Mo Cafe  8 Station Street, Moorabbin</t>
+          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>24/12/2020 11:00am-12:00pm</t>
+          <t>29/12/2020 6:00pm-7:00pm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case attended restaurant</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Minnie Miny Mo Cafe  8 Station Street, Moorabbin</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>28/12/20 7:30pm-8:15pm</t>
+          <t>24/12/2020 11:00am-12:00pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Case dined in restaurant</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Oakleigh</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Left Bank Melbourne Restaurant and Cocktail Bar  1 Southbank Boulevard, Southbank</t>
+          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>25/12/2020 12:00pm-02:30pm</t>
+          <t>28/12/20 7:30pm-8:15pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case attended bar</t>
+          <t>Case dined in restaurant</t>
         </is>
       </c>
     </row>
@@ -726,15 +726,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Left Bank Melbourne Restaurant and Cocktail Bar  1 Southbank Boulevard, Southbank</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>25/12/2020 12:00pm-02:30pm</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Case attended bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Southbank</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>23/112/2020 1:00pm-1:30pm</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>23/12/2020 1:00pm-1:30pm</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>Case attended restaurant</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,44 +413,44 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Doveton</t>
+          <t>Caulfield</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
+          <t>Metro Train - Frankston line</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>26/12/20 6:30pm</t>
+          <t>30/12/20 4:30pm-17:00pm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Case attended English service</t>
+          <t>Case caught train from Caulfield to Cheltenham</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Doveton</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>29/12/2020 09:30am-10:45am</t>
+          <t>26/12/20 6:30pm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case ate in cafe</t>
+          <t>Case attended English service</t>
         </is>
       </c>
     </row>
@@ -462,17 +462,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
+          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>29/12/2020 7:00pm-9:30pm</t>
+          <t>29/12/2020 09:30am-10:45am</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Case attended carnival</t>
+          <t>Case ate in cafe</t>
         </is>
       </c>
     </row>
@@ -484,17 +484,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29/12/2020 05:30pm-05:50pm</t>
+          <t>29/12/2020 7:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case in hotel bar</t>
+          <t>Case attended carnival</t>
         </is>
       </c>
     </row>
@@ -506,17 +506,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>29/12/2020 03:30pm-04:30pm</t>
+          <t>29/12/2020 05:30pm-05:50pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Case visited pool area</t>
+          <t>Case in hotel bar</t>
         </is>
       </c>
     </row>
@@ -528,17 +528,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>30/12/2020 9:30am-10:30am</t>
+          <t>29/12/2020 03:30pm-04:30pm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case visited pool area</t>
         </is>
       </c>
     </row>
@@ -550,17 +550,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>29/12/2020 2:30pm-5:50pm</t>
+          <t>30/12/2020 9:30am-10:30am</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case attended site</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
@@ -572,122 +572,122 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
+          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>29/12/2020 1:00pm-2:00pm</t>
+          <t>29/12/2020 2:30pm-5:50pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case visited vineyard</t>
+          <t>Case attended site</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Leongatha</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+          <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>26/12/2020 5:30pm-7:30pm</t>
+          <t>30/12/2020 11:55am-12:30pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case worked in store</t>
+          <t>Case caught the 11:55am bus from Lakes Entrance</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Leongatha</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>27/12/2020 4:00pm-7:30pm</t>
+          <t>29/12/2020 1:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case worked in store</t>
+          <t>Case visited vineyard</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Leongatha</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
+          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>28/12/2020 8:00pm-9:30pm</t>
+          <t>26/12/2020 5:30pm-7:30pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case worked in store</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Leongatha</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
+          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>29/12/2020 6:00pm-7:00pm</t>
+          <t>27/12/2020 4:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Case attended restaurant</t>
+          <t>Case worked in store</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Minnie Miny Mo Cafe  8 Station Street, Moorabbin</t>
+          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>24/12/2020 11:00am-12:00pm</t>
+          <t>28/12/2020 8:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -699,64 +699,108 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>28/12/20 7:30pm-8:15pm</t>
+          <t>29/12/2020 6:00pm-7:00pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case dined in restaurant</t>
+          <t>Case attended restaurant</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Left Bank Melbourne Restaurant and Cocktail Bar  1 Southbank Boulevard, Southbank</t>
+          <t>Minnie Miny Mo Cafe  8 Station Street, Moorabbin</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>25/12/2020 12:00pm-02:30pm</t>
+          <t>24/12/2020 11:00am-12:00pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case attended bar</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>28/12/20 7:30pm-8:15pm</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Case dined in restaurant</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Southbank</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Left Bank Melbourne Restaurant and Cocktail Bar  1 Southbank Boulevard, Southbank</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>25/12/2020 12:00pm-02:30pm</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Case attended bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Southbank</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>23/12/2020 1:00pm-1:30pm</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Case attended restaurant</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,88 +391,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Bairnsdale</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sons of Mary Restaurant  14 Spink St, Brighton VIC 3186</t>
+          <t>V/Line train - Bairnsdale to Melbourne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24/12/2020 10:00am-11:05am</t>
+          <t>30/12/20 12:45pm-4:30pm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Case ate at restaurant</t>
+          <t>Case caught train from Bairnsdale to Caulfield</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Caulfield</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Metro Train - Frankston line</t>
+          <t>Sons of Mary Restaurant  14 Spink St, Brighton VIC 3186</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>30/12/20 4:30pm-17:00pm</t>
+          <t>24/12/2020 10:00am-11:05am</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Case caught train from Caulfield to Cheltenham</t>
+          <t>Case ate at restaurant</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Doveton</t>
+          <t>Caulfield</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
+          <t>Metro Train - Frankston line</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>26/12/20 6:30pm</t>
+          <t>30/12/20 4:30pm-17:00pm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case attended English service</t>
+          <t>Case caught train from Caulfield to Cheltenham</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Doveton</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>29/12/2020 09:30am-10:45am</t>
+          <t>26/12/20 6:30pm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Case ate in cafe</t>
+          <t>Case attended English service</t>
         </is>
       </c>
     </row>
@@ -484,17 +484,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
+          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29/12/2020 7:00pm-9:30pm</t>
+          <t>29/12/2020 09:30am-10:45am</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case attended carnival</t>
+          <t>Case ate in cafe</t>
         </is>
       </c>
     </row>
@@ -506,17 +506,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>29/12/2020 05:30pm-05:50pm</t>
+          <t>29/12/2020 7:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Case in hotel bar</t>
+          <t>Case attended carnival</t>
         </is>
       </c>
     </row>
@@ -528,17 +528,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>29/12/2020 03:30pm-04:30pm</t>
+          <t>29/12/2020 05:30pm-05:50pm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Case visited pool area</t>
+          <t>Case in hotel bar</t>
         </is>
       </c>
     </row>
@@ -550,17 +550,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>30/12/2020 9:30am-10:30am</t>
+          <t>29/12/2020 03:30pm-04:30pm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case visited pool area</t>
         </is>
       </c>
     </row>
@@ -572,17 +572,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>29/12/2020 2:30pm-5:50pm</t>
+          <t>30/12/2020 9:30am-10:30am</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case attended site</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
@@ -594,17 +594,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
+          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>30/12/2020 11:55am-12:30pm</t>
+          <t>29/12/2020 2:30pm-5:50pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case caught the 11:55am bus from Lakes Entrance</t>
+          <t>Case attended site</t>
         </is>
       </c>
     </row>
@@ -616,39 +616,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
+          <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>29/12/2020 1:00pm-2:00pm</t>
+          <t>30/12/2020 11:55am-12:30pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case visited vineyard</t>
+          <t>Case caught the 11:55am bus from Lakes Entrance</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Leongatha</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>26/12/2020 5:30pm-7:30pm</t>
+          <t>29/12/2020 1:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case worked in store</t>
+          <t>Case visited vineyard</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>27/12/2020 4:00pm-7:30pm</t>
+          <t>26/12/2020 5:30pm-7:30pm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -677,22 +677,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Leongatha</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
+          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>28/12/2020 8:00pm-9:30pm</t>
+          <t>27/12/2020 4:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case worked in store</t>
         </is>
       </c>
     </row>
@@ -704,83 +704,83 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
+          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>29/12/2020 6:00pm-7:00pm</t>
+          <t>28/12/2020 8:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case attended restaurant</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Minnie Miny Mo Cafe  8 Station Street, Moorabbin</t>
+          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>24/12/2020 11:00am-12:00pm</t>
+          <t>29/12/2020 6:00pm-7:00pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case attended restaurant</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Minnie Miny Mo Cafe  8 Station Street, Moorabbin</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>28/12/20 7:30pm-8:15pm</t>
+          <t>24/12/2020 11:00am-12:00pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case dined in restaurant</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Oakleigh</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Left Bank Melbourne Restaurant and Cocktail Bar  1 Southbank Boulevard, Southbank</t>
+          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>25/12/2020 12:00pm-02:30pm</t>
+          <t>28/12/20 7:30pm-8:15pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case attended bar</t>
+          <t>Case dined in restaurant</t>
         </is>
       </c>
     </row>
@@ -792,15 +792,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Left Bank Melbourne Restaurant and Cocktail Bar  1 Southbank Boulevard, Southbank</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>25/12/2020 12:00pm-02:30pm</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Case attended bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Southbank</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>23/12/2020 1:00pm-1:30pm</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Case attended restaurant</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -819,7 +819,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>23/12/2020 1:00pm-1:30pm</t>
+          <t>23/12/2020 8:00pm-10:00pm</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,154 +391,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bairnsdale</t>
+          <t>Albert Park</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V/Line train - Bairnsdale to Melbourne</t>
+          <t>The Guilty Moose Cafe  143 Victoria Avenue, Albert Park VIC 3206</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30/12/20 12:45pm-4:30pm</t>
+          <t>30/12/20 1pm-1:30pm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Case caught train from Bairnsdale to Caulfield</t>
+          <t>Case ate at cafe</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Bairnsdale</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sons of Mary Restaurant  14 Spink St, Brighton VIC 3186</t>
+          <t>V/Line train - Bairnsdale to Melbourne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>24/12/2020 10:00am-11:05am</t>
+          <t>30/12/20 12:45pm-4:30pm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Case ate at restaurant</t>
+          <t>Case caught train from Bairnsdale to Caulfield</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Caulfield</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Metro Train - Frankston line</t>
+          <t>Sons of Mary Restaurant  14 Spink St, Brighton VIC 3186</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>30/12/20 4:30pm-17:00pm</t>
+          <t>24/12/20 10:00am-11:05am</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case caught train from Caulfield to Cheltenham</t>
+          <t>Case ate at restaurant</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Doveton</t>
+          <t>Camberwell</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
+          <t>Crown Nails  766 Riversdale Road, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>26/12/20 6:30pm</t>
+          <t>30/12/20 1:30pm-2:30pm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Case attended English service</t>
+          <t>Case attended</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Camberwell</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Tao Dumplings  1 Evans Place, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29/12/2020 09:30am-10:45am</t>
+          <t>30/12/20 12:30pm-1:30pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case ate in cafe</t>
+          <t>Case ate at restaurant</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Caulfield</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
+          <t>Metro Train - Frankston line</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>29/12/2020 7:00pm-9:30pm</t>
+          <t>30/12/20 4:30pm-17:00pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Case attended carnival</t>
+          <t>Case caught train from Caulfield to Cheltenham</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Doveton</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>29/12/2020 05:30pm-05:50pm</t>
+          <t>26/12/20 6:30pm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Case in hotel bar</t>
+          <t>Case attended English service</t>
         </is>
       </c>
     </row>
@@ -550,17 +550,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>29/12/2020 03:30pm-04:30pm</t>
+          <t>29/12/20 09:30am-10:45am</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case visited pool area</t>
+          <t>Case ate in cafe</t>
         </is>
       </c>
     </row>
@@ -572,17 +572,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>30/12/2020 9:30am-10:30am</t>
+          <t>29/12/20 7:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case attended carnival</t>
         </is>
       </c>
     </row>
@@ -594,17 +594,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>29/12/2020 2:30pm-5:50pm</t>
+          <t>29/12/20 05:30pm-05:50pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case attended site</t>
+          <t>Case in hotel bar</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
+          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>30/12/2020 11:55am-12:30pm</t>
+          <t>29/12/20 03:30pm-04:30pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case caught the 11:55am bus from Lakes Entrance</t>
+          <t>Case visited pool area</t>
         </is>
       </c>
     </row>
@@ -638,191 +638,235 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
+          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>29/12/2020 1:00pm-2:00pm</t>
+          <t>30/12/20 9:30am-10:30am</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case visited vineyard</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Leongatha</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>26/12/2020 5:30pm-7:30pm</t>
+          <t>29/12/20 2:30pm-5:50pm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Case worked in store</t>
+          <t>Case attended site</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Leongatha</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+          <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>27/12/2020 4:00pm-7:30pm</t>
+          <t>30/12/20 11:55am-12:30pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Case worked in store</t>
+          <t>Case caught the 11:55am bus from Lakes Entrance</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
+          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>28/12/2020 8:00pm-9:30pm</t>
+          <t>29/12/20 1:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case visited vineyard</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Leongatha</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
+          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>29/12/2020 6:00pm-7:00pm</t>
+          <t>26/12/20 5:30pm-7:30pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case attended restaurant</t>
+          <t>Case worked in store</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Leongatha</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Minnie Miny Mo Cafe  8 Station Street, Moorabbin</t>
+          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>24/12/2020 11:00am-12:00pm</t>
+          <t>27/12/20 4:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case worked in store</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>28/12/20 7:30pm-8:15pm</t>
+          <t>28/12/20 8:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case dined in restaurant</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Left Bank Melbourne Restaurant and Cocktail Bar  1 Southbank Boulevard, Southbank</t>
+          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>25/12/2020 12:00pm-02:30pm</t>
+          <t>29/12/20 6:00pm-7:00pm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Case attended bar</t>
+          <t>Case attended restaurant</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>28/12/20 7:30pm-8:15pm</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Case dined in restaurant</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Southbank</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Left Bank Melbourne Restaurant and Cocktail Bar  1 Southbank Boulevard, Southbank</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>25/12/20 12:00pm-02:30pm</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Case attended bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Southbank</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>23/12/2020 8:00pm-10:00pm</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>23/12/20 8:00pm-10:00pm</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>Case attended restaurant</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>30/12/20 12:30pm-1:30pm</t>
+          <t>29/12/20 12:30pm-1:30pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,22 +545,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Hampton</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>29/12/20 09:30am-10:45am</t>
+          <t>28-12-2020 1:20pm-2:30pm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case ate in cafe</t>
+          <t>Case ate in store</t>
         </is>
       </c>
     </row>
@@ -572,17 +572,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
+          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>29/12/20 7:00pm-9:30pm</t>
+          <t>29/12/20 09:30am-10:45am</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case attended carnival</t>
+          <t>Case ate in cafe</t>
         </is>
       </c>
     </row>
@@ -594,17 +594,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>29/12/20 05:30pm-05:50pm</t>
+          <t>29/12/20 7:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case in hotel bar</t>
+          <t>Case attended carnival</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>29/12/20 03:30pm-04:30pm</t>
+          <t>29/12/20 05:30pm-05:50pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case visited pool area</t>
+          <t>Case in hotel bar</t>
         </is>
       </c>
     </row>
@@ -638,17 +638,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>30/12/20 9:30am-10:30am</t>
+          <t>29/12/20 03:30pm-04:30pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case visited pool area</t>
         </is>
       </c>
     </row>
@@ -660,17 +660,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>29/12/20 2:30pm-5:50pm</t>
+          <t>30/12/20 9:30am-10:30am</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Case attended site</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
@@ -682,17 +682,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
+          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>30/12/20 11:55am-12:30pm</t>
+          <t>29/12/20 2:30pm-5:50pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Case caught the 11:55am bus from Lakes Entrance</t>
+          <t>Case attended site</t>
         </is>
       </c>
     </row>
@@ -704,39 +704,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
+          <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>29/12/20 1:00pm-2:00pm</t>
+          <t>30/12/20 11:55am-12:30pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case visited vineyard</t>
+          <t>Case caught the 11:55am bus from Lakes Entrance</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Leongatha</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>26/12/20 5:30pm-7:30pm</t>
+          <t>29/12/20 1:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case worked in store</t>
+          <t>Case visited vineyard</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>27/12/20 4:00pm-7:30pm</t>
+          <t>26/12/20 5:30pm-7:30pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -765,108 +765,152 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Leongatha</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
+          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>28/12/20 8:00pm-9:30pm</t>
+          <t>27/12/20 4:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case worked in store</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>McKinnon</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
+          <t>260 McKinnon Road, McKinnon VIC 3204</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>29/12/20 6:00pm-7:00pm</t>
+          <t>23-12-2020 4:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Case attended restaurant</t>
+          <t>Case had hair cut in store</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>28/12/20 7:30pm-8:15pm</t>
+          <t>28/12/20 8:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Case dined in restaurant</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Left Bank Melbourne Restaurant and Cocktail Bar  1 Southbank Boulevard, Southbank</t>
+          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>25/12/20 12:00pm-02:30pm</t>
+          <t>29/12/20 6:00pm-7:00pm</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Case attended bar</t>
+          <t>Case attended restaurant</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>28/12/20 7:30pm-8:15pm</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Case dined in restaurant</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Southbank</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Left Bank Melbourne Restaurant and Cocktail Bar  1 Southbank Boulevard, Southbank</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>25/12/20 12:00pm-02:30pm</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Case attended bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Southbank</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>23/12/20 8:00pm-10:00pm</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Case attended restaurant</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>30/12/20 4:30pm-17:00pm</t>
+          <t>30/12/20 4:30pm-5:00pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,39 +440,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sons of Mary Restaurant  14 Spink St, Brighton VIC 3186</t>
+          <t>Brighton Beach</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>24/12/20 10:00am-11:05am</t>
+          <t>26/12/20 12pm - 1pm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case ate at restaurant</t>
+          <t>Case attended beach</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Camberwell</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Crown Nails  766 Riversdale Road, Camberwell VIC 3124</t>
+          <t>Sons of Mary Restaurant  14 Spink St, Brighton VIC 3186</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>30/12/20 1:30pm-2:30pm</t>
+          <t>24/12/20 10:00am-11:05am</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Case attended</t>
+          <t>Case ate at restaurant</t>
         </is>
       </c>
     </row>
@@ -484,127 +484,127 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tao Dumplings  1 Evans Place, Camberwell VIC 3124</t>
+          <t>Crown Nails  766 Riversdale Road, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29/12/20 12:30pm-1:30pm</t>
+          <t>30/12/20 1:30pm-2:30pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case ate at restaurant</t>
+          <t>Case attended</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Caulfield</t>
+          <t>Camberwell</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Metro Train - Frankston line</t>
+          <t>Tao Dumplings  1 Evans Place, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>30/12/20 4:30pm-5:00pm</t>
+          <t>29/12/20 12:30pm-1:30pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Case caught train from Caulfield to Cheltenham</t>
+          <t>Case ate at restaurant</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Doveton</t>
+          <t>Caulfield</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
+          <t>Metro Train - Frankston line</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>26/12/20 6:30pm</t>
+          <t>30/12/20 4:30pm-5:00pm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Case attended English service</t>
+          <t>Case caught train from Caulfield to Cheltenham</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hampton</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
+          <t>Two Bob Snob, 256 Charman Road</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>28-12-2020 1:20pm-2:30pm</t>
+          <t>22/12/2020 1pm - 2pm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case ate in store</t>
+          <t>Case attended Venue</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Doveton</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>29/12/20 09:30am-10:45am</t>
+          <t>26/12/20 6:30pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case ate in cafe</t>
+          <t>Case attended English service</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Hampton</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
+          <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>29/12/20 7:00pm-9:30pm</t>
+          <t>28-12-2020 1:20pm-2:30pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case attended carnival</t>
+          <t>Case ate in store</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>29/12/20 05:30pm-05:50pm</t>
+          <t>29/12/20 09:30am-10:45am</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case in hotel bar</t>
+          <t>Case ate in cafe</t>
         </is>
       </c>
     </row>
@@ -638,17 +638,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>29/12/20 03:30pm-04:30pm</t>
+          <t>29/12/20 7:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case visited pool area</t>
+          <t>Case attended carnival</t>
         </is>
       </c>
     </row>
@@ -660,17 +660,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>30/12/20 9:30am-10:30am</t>
+          <t>29/12/20 05:30pm-05:50pm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case in hotel bar</t>
         </is>
       </c>
     </row>
@@ -682,17 +682,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>29/12/20 2:30pm-5:50pm</t>
+          <t>29/12/20 03:30pm-04:30pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Case attended site</t>
+          <t>Case visited pool area</t>
         </is>
       </c>
     </row>
@@ -704,17 +704,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
+          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>30/12/20 11:55am-12:30pm</t>
+          <t>30/12/20 9:30am-10:30am</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case caught the 11:55am bus from Lakes Entrance</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
@@ -726,191 +726,235 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
+          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>29/12/20 1:00pm-2:00pm</t>
+          <t>29/12/20 2:30pm-5:50pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case visited vineyard</t>
+          <t>Case attended site</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Leongatha</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+          <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>26/12/20 5:30pm-7:30pm</t>
+          <t>30/12/20 11:55am-12:30pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case worked in store</t>
+          <t>Case caught the 11:55am bus from Lakes Entrance</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Leongatha</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>27/12/20 4:00pm-7:30pm</t>
+          <t>29/12/20 1:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case worked in store</t>
+          <t>Case visited vineyard</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>McKinnon</t>
+          <t>Leongatha</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>260 McKinnon Road, McKinnon VIC 3204</t>
+          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>23-12-2020 4:00pm-6:00pm</t>
+          <t>26/12/20 5:30pm-7:30pm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Case had hair cut in store</t>
+          <t>Case worked in store</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Leongatha</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
+          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>28/12/20 8:00pm-9:30pm</t>
+          <t>27/12/20 4:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case worked in store</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>McKinnon</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
+          <t>260 McKinnon Road, McKinnon VIC 3204</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>29/12/20 6:00pm-7:00pm</t>
+          <t>23-12-2020 4:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Case attended restaurant</t>
+          <t>Case had hair cut in store</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>28/12/20 7:30pm-8:15pm</t>
+          <t>28/12/20 8:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Case dined in restaurant</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Left Bank Melbourne Restaurant and Cocktail Bar  1 Southbank Boulevard, Southbank</t>
+          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>25/12/20 12:00pm-02:30pm</t>
+          <t>29/12/20 6:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Case attended bar</t>
+          <t>Case attended restaurant</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>28/12/20 7:30pm-8:15pm</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Case dined in restaurant</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Southbank</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Left Bank Melbourne Restaurant and Cocktail Bar  1 Southbank Boulevard, Southbank</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>25/12/20 12:00pm-02:30pm</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Case attended bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Southbank</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>23/12/20 8:00pm-10:00pm</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Case attended restaurant</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,66 +391,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Albert Park</t>
+          <t>Abbotsford</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The Guilty Moose Cafe  143 Victoria Avenue, Albert Park VIC 3206</t>
+          <t>Bodriggy Brewing Company  245 Johnston Street, Abbotsford VIC 3067</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30/12/20 1pm-1:30pm</t>
+          <t>28/12/20 2:50pm-5:30pm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Case ate at cafe</t>
+          <t>Case dined at venue</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bairnsdale</t>
+          <t>Albert Park</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V/Line train - Bairnsdale to Melbourne</t>
+          <t>The Guilty Moose Cafe  143 Victoria Avenue, Albert Park VIC 3206</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>30/12/20 12:45pm-4:30pm</t>
+          <t>30/12/20 1pm-1:30pm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Case caught train from Bairnsdale to Caulfield</t>
+          <t>Case ate at cafe</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Bairnsdale</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brighton Beach</t>
+          <t>V/Line train - Bairnsdale to Melbourne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>26/12/20 12pm - 1pm</t>
+          <t>30/12/20 12:45pm-4:30pm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case attended beach</t>
+          <t>Case caught train from Bairnsdale to Caulfield</t>
         </is>
       </c>
     </row>
@@ -567,88 +567,88 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Doveton</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
+          <t>Melbourne Boat Hire - Yarra River Cruise. 45 Newquay Promenade, Docklands VIC 3008</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>26/12/20 6:30pm</t>
+          <t>28/12/2020 11.26am-2:00pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case attended English service</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hampton</t>
+          <t>Doveton</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
+          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>28-12-2020 1:20pm-2:30pm</t>
+          <t>26/12/20 6:30pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case ate in store</t>
+          <t>Case attended English service</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Hampton</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>29/12/20 09:30am-10:45am</t>
+          <t>28-12-2020 1:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case ate in cafe</t>
+          <t>Case ate in store</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Hampton</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
+          <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>29/12/20 7:00pm-9:30pm</t>
+          <t>28-12-2020 1:30pm-2:30pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case attended carnival</t>
+          <t>Case ate in store</t>
         </is>
       </c>
     </row>
@@ -660,17 +660,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>29/12/20 05:30pm-05:50pm</t>
+          <t>29/12/20 09:30am-10:45am</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Case in hotel bar</t>
+          <t>Case ate in cafe</t>
         </is>
       </c>
     </row>
@@ -682,17 +682,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>29/12/20 03:30pm-04:30pm</t>
+          <t>29/12/20 7:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Case visited pool area</t>
+          <t>Case attended carnival</t>
         </is>
       </c>
     </row>
@@ -704,17 +704,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>30/12/20 9:30am-10:30am</t>
+          <t>29/12/20 05:30pm-05:50pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case in hotel bar</t>
         </is>
       </c>
     </row>
@@ -726,17 +726,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>29/12/20 2:30pm-5:50pm</t>
+          <t>29/12/20 03:30pm-04:30pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case attended site</t>
+          <t>Case visited pool area</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
+          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>30/12/20 11:55am-12:30pm</t>
+          <t>30/12/20 9:30am-10:30am</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case caught the 11:55am bus from Lakes Entrance</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
@@ -770,105 +770,105 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
+          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>29/12/20 1:00pm-2:00pm</t>
+          <t>29/12/20 2:30pm-5:50pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case visited vineyard</t>
+          <t>Case attended site</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Leongatha</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+          <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>26/12/20 5:30pm-7:30pm</t>
+          <t>30/12/20 11:55am-12:30pm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Case worked in store</t>
+          <t>Case caught the 11:55am bus from Lakes Entrance</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Leongatha</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>27/12/20 4:00pm-7:30pm</t>
+          <t>29/12/20 1:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Case worked in store</t>
+          <t>Case visited vineyard</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>McKinnon</t>
+          <t>Leongatha</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>260 McKinnon Road, McKinnon VIC 3204</t>
+          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>23-12-2020 4:00pm-6:00pm</t>
+          <t>26/12/20 5:30pm-7:30pm</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Case had hair cut in store</t>
+          <t>Case worked in store</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Leongatha</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
+          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>28/12/20 8:00pm-9:30pm</t>
+          <t>27/12/20 4:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case worked in store</t>
         </is>
       </c>
     </row>
@@ -880,83 +880,127 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
+          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>29/12/20 6:00pm-7:30pm</t>
+          <t>28/12/20 8:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Case attended restaurant</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>28/12/20 7:30pm-8:15pm</t>
+          <t>29/12/20 6:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Case dined in restaurant</t>
+          <t>Case attended restaurant</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Left Bank Melbourne Restaurant and Cocktail Bar  1 Southbank Boulevard, Southbank</t>
+          <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25/12/20 12:00pm-02:30pm</t>
+          <t>28/12/2020 10pm - 12.30am</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Case attended bar</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Moorabin</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
+          <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>23/12/20 8:00pm-10:00pm</t>
+          <t>21/12/20 2pm - 10pm  22/12/20 10am - 6pm  24/12/20 1pm - 10pm  28/12/20 8.05pm - 8.47pm  29/12/20 12pm - 4pm</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Case attended restaurant</t>
+          <t>Cases workplace</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>28/12/20 7:30pm-8:15pm</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Case dined in restaurant</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sandringham Line</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Metro Train line Sandringham</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>28/12/20 7pm -7.50pm</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Travelled by train from Sandringham Station to Parliament Station</t>
         </is>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,66 +567,66 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Melbourne Boat Hire - Yarra River Cruise. 45 Newquay Promenade, Docklands VIC 3008</t>
+          <t>Stomping Ground Brewing Company, 100 Gipps Street, Collingwood VIC 3066</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>28/12/2020 11.26am-2:00pm</t>
+          <t>28/12/20 6:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case dined at venue</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Doveton</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
+          <t>Melbourne Boat Hire - Yarra River Cruise. 45 Newquay Promenade, Docklands VIC 3008</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>26/12/20 6:30pm</t>
+          <t>28/12/2020 11.26am-2:00pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case attended English service</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hampton</t>
+          <t>Doveton</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
+          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>28-12-2020 1:00pm-2:00pm</t>
+          <t>26/12/20 6:30pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case ate in store</t>
+          <t>Case attended English service</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>28-12-2020 1:30pm-2:30pm</t>
+          <t>28-12-2020 1:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -655,22 +655,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Hampton</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>29/12/20 09:30am-10:45am</t>
+          <t>28-12-2020 1:30pm-2:30pm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Case ate in cafe</t>
+          <t>Case ate in store</t>
         </is>
       </c>
     </row>
@@ -682,17 +682,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
+          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>29/12/20 7:00pm-9:30pm</t>
+          <t>29/12/20 09:30am-10:45am</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Case attended carnival</t>
+          <t>Case ate in cafe</t>
         </is>
       </c>
     </row>
@@ -704,17 +704,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>29/12/20 05:30pm-05:50pm</t>
+          <t>29/12/20 7:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case in hotel bar</t>
+          <t>Case attended carnival</t>
         </is>
       </c>
     </row>
@@ -726,17 +726,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>29/12/20 03:30pm-04:30pm</t>
+          <t>29/12/20 05:30pm-05:50pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case visited pool area</t>
+          <t>Case in hotel bar</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>30/12/20 9:30am-10:30am</t>
+          <t>29/12/20 03:30pm-04:30pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case visited pool area</t>
         </is>
       </c>
     </row>
@@ -770,17 +770,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>29/12/20 2:30pm-5:50pm</t>
+          <t>30/12/20 9:30am-10:30am</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case attended site</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
@@ -792,17 +792,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
+          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>30/12/20 11:55am-12:30pm</t>
+          <t>29/12/20 2:30pm-5:50pm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Case caught the 11:55am bus from Lakes Entrance</t>
+          <t>Case attended site</t>
         </is>
       </c>
     </row>
@@ -814,39 +814,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
+          <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>29/12/20 1:00pm-2:00pm</t>
+          <t>30/12/20 11:55am-12:30pm</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Case visited vineyard</t>
+          <t>Case caught the 11:55am bus from Lakes Entrance</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Leongatha</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>26/12/20 5:30pm-7:30pm</t>
+          <t>29/12/20 1:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Case worked in store</t>
+          <t>Case visited vineyard</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>27/12/20 4:00pm-7:30pm</t>
+          <t>26/12/20 5:30pm-7:30pm</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -875,22 +875,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Leongatha</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
+          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>28/12/20 8:00pm-9:30pm</t>
+          <t>27/12/20 4:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case worked in store</t>
         </is>
       </c>
     </row>
@@ -902,17 +902,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
+          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>29/12/20 6:00pm-7:30pm</t>
+          <t>28/12/20 8:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Case attended restaurant</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
@@ -924,81 +924,103 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
+          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>28/12/2020 10pm - 12.30am</t>
+          <t>29/12/20 6:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case attended restaurant</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Moorabin</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
+          <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>21/12/20 2pm - 10pm  22/12/20 10am - 6pm  24/12/20 1pm - 10pm  28/12/20 8.05pm - 8.47pm  29/12/20 12pm - 4pm</t>
+          <t>28/12/2020 10pm - 12.30am</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Cases workplace</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Moorabin</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>28/12/20 7:30pm-8:15pm</t>
+          <t>21/12/20 2pm - 10pm  22/12/20 10am - 6pm  24/12/20 1pm - 10pm  28/12/20 8.05pm - 8.47pm  29/12/20 12pm - 4pm</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Case dined in restaurant</t>
+          <t>Cases workplace</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>28/12/20 7:30pm-8:15pm</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Case dined in restaurant</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>Sandringham Line</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Metro Train line Sandringham</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>28/12/20 7pm -7.50pm</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Travelled by train from Sandringham Station to Parliament Station</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -951,7 +951,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>28/12/2020 10pm - 12.30am</t>
+          <t>28/12/2020 10:30pm-12.00am</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -963,64 +963,86 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Moorabin</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
+          <t>Nandos  27 Elizabeth Street, Melbourne</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>21/12/20 2pm - 10pm  22/12/20 10am - 6pm  24/12/20 1pm - 10pm  28/12/20 8.05pm - 8.47pm  29/12/20 12pm - 4pm</t>
+          <t>01/01/2021 1:00am - 2:00am</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cases workplace</t>
+          <t>Case dined at venue</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Moorabin</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28/12/20 7:30pm-8:15pm</t>
+          <t>21/12/20 2pm - 10pm  22/12/20 10am - 6pm  24/12/20 1pm - 10pm  28/12/20 8.05pm - 8.47pm  29/12/20 12pm - 4pm</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Case dined in restaurant</t>
+          <t>Cases workplace</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>28/12/20 7:30pm-8:15pm</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Case dined in restaurant</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Sandringham Line</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Metro Train line Sandringham</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>28/12/20 7pm -7.50pm</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Travelled by train from Sandringham Station to Parliament Station</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,7 +423,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>30/12/20 1pm-1:30pm</t>
+          <t>21/12/20 1pm-1:30pm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -946,17 +946,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
+          <t>Metro Train - Pakenham line</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>28/12/2020 10:30pm-12.00am</t>
+          <t>01/01/21 3:00am-4:00am</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case caught train from Flinders St to Westall Station</t>
         </is>
       </c>
     </row>
@@ -985,64 +985,42 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Moorabin</t>
+          <t>Oakleigh</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
+          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>21/12/20 2pm - 10pm  22/12/20 10am - 6pm  24/12/20 1pm - 10pm  28/12/20 8.05pm - 8.47pm  29/12/20 12pm - 4pm</t>
+          <t>28/12/20 7:30pm-8:15pm</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cases workplace</t>
+          <t>Case dined in restaurant</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Sandringham Line</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Metro Train line Sandringham</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>28/12/20 7:30pm-8:15pm</t>
+          <t>28/12/20 7pm -7.50pm</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
-        <is>
-          <t>Case dined in restaurant</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Sandringham Line</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Metro Train line Sandringham</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>28/12/20 7pm -7.50pm</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
         <is>
           <t>Travelled by train from Sandringham Station to Parliament Station</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -501,66 +501,66 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Camberwell</t>
+          <t>Caulfield</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tao Dumplings  1 Evans Place, Camberwell VIC 3124</t>
+          <t>Metro Train - Frankston line</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>29/12/20 12:30pm-1:30pm</t>
+          <t>30/12/20 4:30pm-5:00pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Case ate at restaurant</t>
+          <t>Case caught train from Caulfield to Cheltenham</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Caulfield</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Metro Train - Frankston line</t>
+          <t>Two Bob Snob, 256 Charman Road</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>30/12/20 4:30pm-5:00pm</t>
+          <t>22/12/2020 1pm - 2pm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Case caught train from Caulfield to Cheltenham</t>
+          <t>Case attended Venue</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Clayton South</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Two Bob Snob, 256 Charman Road</t>
+          <t>Metro Train - Pakenham line</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>22/12/2020 1pm - 2pm</t>
+          <t>31/12/20 9:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case attended Venue</t>
+          <t>Case caught train from Westall Station to Flinders St.</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/01/21 3:00am-4:00am</t>
+          <t>01/01/21 4:30am-5:00am</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/01/2021 1:00am - 2:00am</t>
+          <t>01/01/2021 2:00am - 2:30am</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,42 +985,64 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Nunawading</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Good Guys, 7/372 Whitehorse Road, Nunawading</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28/12/20 7:30pm-8:15pm</t>
+          <t>29/12/20, 9:30am-10:00am</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Case dined in restaurant</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>28/12/20 7:30pm-8:15pm</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Case dined in restaurant</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Sandringham Line</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Metro Train line Sandringham</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>28/12/20 7pm -7.50pm</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Travelled by train from Sandringham Station to Parliament Station</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,286 +391,286 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abbotsford</t>
+          <t>Bairnsdale</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bodriggy Brewing Company  245 Johnston Street, Abbotsford VIC 3067</t>
+          <t>V/Line train - Bairnsdale to Melbourne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>28/12/20 2:50pm-5:30pm</t>
+          <t>30/12/20 12:45pm-4:30pm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Case dined at venue</t>
+          <t>Case caught train from Bairnsdale to Caulfield</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Albert Park</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The Guilty Moose Cafe  143 Victoria Avenue, Albert Park VIC 3206</t>
+          <t>Sons of Mary Restaurant  14 Spink St, Brighton VIC 3186</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21/12/20 1pm-1:30pm</t>
+          <t>24/12/20 10:00am-11:05am</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Case ate at cafe</t>
+          <t>Case ate at restaurant</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bairnsdale</t>
+          <t>Camberwell</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V/Line train - Bairnsdale to Melbourne</t>
+          <t>Crown Nails  766 Riversdale Road, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>30/12/20 12:45pm-4:30pm</t>
+          <t>30/12/20 1:30pm-2:30pm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case caught train from Bairnsdale to Caulfield</t>
+          <t>Case attended</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Caulfield</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sons of Mary Restaurant  14 Spink St, Brighton VIC 3186</t>
+          <t>Metro Train - Frankston line</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>24/12/20 10:00am-11:05am</t>
+          <t>30/12/20 4:30pm-5:00pm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Case ate at restaurant</t>
+          <t>Case caught train from Caulfield to Cheltenham</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Camberwell</t>
+          <t>Clayton South</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Crown Nails  766 Riversdale Road, Camberwell VIC 3124</t>
+          <t>Metro Train - Pakenham line</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>30/12/20 1:30pm-2:30pm</t>
+          <t>31/12/20 9:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case attended</t>
+          <t>Case caught train from Westall Station to Flinders St.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Caulfield</t>
+          <t>Doveton</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Metro Train - Frankston line</t>
+          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>30/12/20 4:30pm-5:00pm</t>
+          <t>26/12/20 6:30pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Case caught train from Caulfield to Cheltenham</t>
+          <t>Case attended English service</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Two Bob Snob, 256 Charman Road</t>
+          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22/12/2020 1pm - 2pm</t>
+          <t>29/12/20 09:30am-10:45am</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Case attended Venue</t>
+          <t>Case ate in cafe</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Clayton South</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Metro Train - Pakenham line</t>
+          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>31/12/20 9:00pm-9:30pm</t>
+          <t>29/12/20 7:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case caught train from Westall Station to Flinders St.</t>
+          <t>Case attended carnival</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Stomping Ground Brewing Company, 100 Gipps Street, Collingwood VIC 3066</t>
+          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>28/12/20 6:00pm-7:30pm</t>
+          <t>29/12/20 05:30pm-05:50pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case dined at venue</t>
+          <t>Case in hotel bar</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Melbourne Boat Hire - Yarra River Cruise. 45 Newquay Promenade, Docklands VIC 3008</t>
+          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>28/12/2020 11.26am-2:00pm</t>
+          <t>29/12/20 03:30pm-04:30pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case visited pool area</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Doveton</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
+          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>26/12/20 6:30pm</t>
+          <t>30/12/20 9:30am-10:30am</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case attended English service</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hampton</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
+          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>28-12-2020 1:00pm-2:00pm</t>
+          <t>29/12/20 2:30pm-5:50pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case ate in store</t>
+          <t>Case attended site</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hampton</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
+          <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>28-12-2020 1:30pm-2:30pm</t>
+          <t>30/12/20 11:55am-12:30pm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Case ate in store</t>
+          <t>Case caught the 11:55am bus from Lakes Entrance</t>
         </is>
       </c>
     </row>
@@ -682,369 +682,259 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>29/12/20 09:30am-10:45am</t>
+          <t>29/12/20 1:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Case ate in cafe</t>
+          <t>Case visited vineyard</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Leongatha</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
+          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>29/12/20 7:00pm-9:30pm</t>
+          <t>26/12/20 5:30pm-7:30pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case attended carnival</t>
+          <t>Case worked in store</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Leongatha</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>29/12/20 05:30pm-05:50pm</t>
+          <t>27/12/20 4:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case in hotel bar</t>
+          <t>Case worked in store</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>29/12/20 03:30pm-04:30pm</t>
+          <t>28/12/20 8:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case visited pool area</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>30/12/20 9:30am-10:30am</t>
+          <t>29/12/20 6:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case attended restaurant</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Metro Train - Pakenham line</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>29/12/20 2:30pm-5:50pm</t>
+          <t>01/01/21 4:30am-5:00am</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Case attended site</t>
+          <t>Case caught train from Flinders St to Westall Station</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
+          <t>Nandos  27 Elizabeth Street, Melbourne</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>30/12/20 11:55am-12:30pm</t>
+          <t>01/01/2021 2:00am - 2:30am</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Case caught the 11:55am bus from Lakes Entrance</t>
+          <t>Case dined at venue</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Nunawading</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
+          <t>Good Guys, 7/372 Whitehorse Road, Nunawading</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>29/12/20 1:00pm-2:00pm</t>
+          <t>29/12/20, 9:30am-10:00am</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Case visited vineyard</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Leongatha</t>
+          <t>Oakleigh</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>26/12/20 5:30pm-7:30pm</t>
+          <t>28/12/20 7:30pm-8:15pm</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Case worked in store</t>
+          <t>Case dined in restaurant</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Leongatha</t>
+          <t>Sandringham Line</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+          <t>Metro Train line Sandringham</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>27/12/20 4:00pm-7:30pm</t>
+          <t>28/12/20 7pm -7.50pm</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Case worked in store</t>
+          <t>Travelled by train from Sandringham Station to Parliament Station</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
+          <t>IKEA Springvale, 917 Princes Hwy</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>28/12/20 8:00pm-9:30pm</t>
+          <t>30/12/20, 4:00pm-6:30pm</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case shopped at store and dined at cafe</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
+          <t>Springvale Shopping Centre,  46-58 Buckingham Avenue</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>29/12/20 6:00pm-7:30pm</t>
+          <t>29/12/20, 11:00am-12:30pm</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Case attended restaurant</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Metro Train - Pakenham line</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>01/01/21 4:30am-5:00am</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Case caught train from Flinders St to Westall Station</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Nandos  27 Elizabeth Street, Melbourne</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>01/01/2021 2:00am - 2:30am</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Case dined at venue</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Nunawading</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Good Guys, 7/372 Whitehorse Road, Nunawading</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>29/12/20, 9:30am-10:00am</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Oakleigh</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>28/12/20 7:30pm-8:15pm</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Case dined in restaurant</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Sandringham Line</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Metro Train line Sandringham</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>28/12/20 7pm -7.50pm</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Travelled by train from Sandringham Station to Parliament Station</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -912,7 +912,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Case shopped at store and dined at cafe</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -523,22 +523,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Emerald</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Lakeside Paddle Boats, Emerald Lake Park</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>29/12/20 09:30am-10:45am</t>
+          <t>31/12/20 3:30pm - 5:30pm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Case ate in cafe</t>
+          <t>Case visited venue</t>
         </is>
       </c>
     </row>
@@ -550,17 +550,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
+          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>29/12/20 7:00pm-9:30pm</t>
+          <t>29/12/20 09:30am-10:45am</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case attended carnival</t>
+          <t>Case ate in cafe</t>
         </is>
       </c>
     </row>
@@ -572,17 +572,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>29/12/20 05:30pm-05:50pm</t>
+          <t>29/12/20 7:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case in hotel bar</t>
+          <t>Case attended carnival</t>
         </is>
       </c>
     </row>
@@ -594,17 +594,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>29/12/20 03:30pm-04:30pm</t>
+          <t>29/12/20 05:30pm-05:50pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case visited pool area</t>
+          <t>Case in hotel bar</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>30/12/20 9:30am-10:30am</t>
+          <t>29/12/20 03:30pm-04:30pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case visited pool area</t>
         </is>
       </c>
     </row>
@@ -638,17 +638,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>29/12/20 2:30pm-5:50pm</t>
+          <t>30/12/20 9:30am-10:30am</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case attended site</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
@@ -660,17 +660,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
+          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>30/12/20 11:55am-12:30pm</t>
+          <t>29/12/20 2:30pm-5:50pm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Case caught the 11:55am bus from Lakes Entrance</t>
+          <t>Case attended site</t>
         </is>
       </c>
     </row>
@@ -682,39 +682,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
+          <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>29/12/20 1:00pm-2:00pm</t>
+          <t>30/12/20 11:55am-12:30pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Case visited vineyard</t>
+          <t>Case caught the 11:55am bus from Lakes Entrance</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Leongatha</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>26/12/20 5:30pm-7:30pm</t>
+          <t>29/12/20 1:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case worked in store</t>
+          <t>Case visited vineyard</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>27/12/20 4:00pm-7:30pm</t>
+          <t>26/12/20 5:30pm-7:30pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -743,22 +743,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Leongatha</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
+          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>28/12/20 8:00pm-9:30pm</t>
+          <t>27/12/20 4:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case worked in store</t>
         </is>
       </c>
     </row>
@@ -770,17 +770,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
+          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>29/12/20 6:00pm-7:30pm</t>
+          <t>28/12/20 8:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case attended restaurant</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
@@ -792,17 +792,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Metro Train - Pakenham line</t>
+          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/01/21 4:30am-5:00am</t>
+          <t>29/12/20 6:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Case caught train from Flinders St to Westall Station</t>
+          <t>Case attended restaurant</t>
         </is>
       </c>
     </row>
@@ -814,17 +814,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nandos  27 Elizabeth Street, Melbourne</t>
+          <t>Metro Train - Pakenham line</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/01/2021 2:00am - 2:30am</t>
+          <t>01/01/21 4:30am-5:00am</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Case dined at venue</t>
+          <t>Case caught train from Flinders St to Westall Station</t>
         </is>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,7 +533,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>31/12/20 3:30pm - 5:30pm</t>
+          <t>31/12/20 3:30pm-5:30pm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>29/12/20 09:30am-10:45am</t>
+          <t>29/12/20 9:30am-10:45am</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>29/12/20 05:30pm-05:50pm</t>
+          <t>29/12/20 5:30pm-05:50pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>29/12/20 03:30pm-04:30pm</t>
+          <t>29/12/20 3:30pm-04:30pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -831,88 +831,88 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nunawading</t>
+          <t>Narre Warren</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Good Guys, 7/372 Whitehorse Road, Nunawading</t>
+          <t>Tamarind 8  7b/420 Princes Highway, Narre Warren</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>29/12/20, 9:30am-10:00am</t>
+          <t>30/12/20, 6:30pm-7:00pm</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case got take away</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Nunawading</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Good Guys, 7/372 Whitehorse Road, Nunawading</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>28/12/20 7:30pm-8:15pm</t>
+          <t>29/12/20, 9:30am-10:00am</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Case dined in restaurant</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sandringham Line</t>
+          <t>Oakleigh</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Metro Train line Sandringham</t>
+          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>28/12/20 7pm -7.50pm</t>
+          <t>28/12/20 7:30pm-8:15pm</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Travelled by train from Sandringham Station to Parliament Station</t>
+          <t>Case dined in restaurant</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Sandringham Line</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>IKEA Springvale, 917 Princes Hwy</t>
+          <t>Metro Train line Sandringham</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>30/12/20, 4:00pm-6:30pm</t>
+          <t>28/12/20 7:00pm-7.50pm</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Case shopped at store</t>
+          <t>Travelled by train from Sandringham Station to Parliament Station</t>
         </is>
       </c>
     </row>
@@ -924,15 +924,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>IKEA Springvale, 917 Princes Hwy</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>30/12/20, 4:00pm-6:30pm</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Case shopped at store</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Springvale</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>Springvale Shopping Centre,  46-58 Buckingham Avenue</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>29/12/20, 11:00am-12:30pm</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Case shopped</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>26/12/20 6:30pm</t>
+          <t>26/12/20 6:30pm - 8:30pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,44 +897,44 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sandringham Line</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Metro Train line Sandringham</t>
+          <t>MCG Zone 5 - The Great Southern Stand, Level 4, Bay Q18, Brunton Avenue</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>28/12/20 7:00pm-7.50pm</t>
+          <t>27/12/20 12:30pm - 3:30pm</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Travelled by train from Sandringham Station to Parliament Station</t>
+          <t>Case did not attend during infectious period but may have acquired their illness here</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Sandringham Line</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>IKEA Springvale, 917 Princes Hwy</t>
+          <t>Metro Train line Sandringham</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>30/12/20, 4:00pm-6:30pm</t>
+          <t>28/12/20 7:00pm-7.50pm</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Case shopped at store</t>
+          <t>Travelled by train from Sandringham Station to Parliament Station</t>
         </is>
       </c>
     </row>
@@ -946,15 +946,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Springvale Shopping Centre,  46-58 Buckingham Avenue</t>
+          <t>IKEA Springvale, 917 Princes Hwy</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>30/12/20, 4:00pm-6:30pm</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Case shopped at store</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Springvale</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Springvale Central,  268 Springvale Road</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>29/12/20, 11:00am-12:30pm</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Case shopped</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,22 +545,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Hallam</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Coles Hallam, 2 Princes Domain Drive, Hallam, VIC 3803</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>29/12/20 9:30am-10:45am</t>
+          <t>30/12/20 6:15am - 6:30am</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case ate in cafe</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
@@ -572,17 +572,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
+          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>29/12/20 7:00pm-9:30pm</t>
+          <t>29/12/20 9:30am-10:45am</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case attended carnival</t>
+          <t>Case ate in cafe</t>
         </is>
       </c>
     </row>
@@ -594,17 +594,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>29/12/20 5:30pm-05:50pm</t>
+          <t>29/12/20 7:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case in hotel bar</t>
+          <t>Case attended carnival</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>29/12/20 3:30pm-04:30pm</t>
+          <t>29/12/20 5:30pm-05:50pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case visited pool area</t>
+          <t>Case in hotel bar</t>
         </is>
       </c>
     </row>
@@ -638,17 +638,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>30/12/20 9:30am-10:30am</t>
+          <t>29/12/20 3:30pm-04:30pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case visited pool area</t>
         </is>
       </c>
     </row>
@@ -660,17 +660,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>29/12/20 2:30pm-5:50pm</t>
+          <t>30/12/20 9:30am-10:30am</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Case attended site</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
@@ -682,17 +682,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
+          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>30/12/20 11:55am-12:30pm</t>
+          <t>29/12/20 2:30pm-5:50pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Case caught the 11:55am bus from Lakes Entrance</t>
+          <t>Case attended site</t>
         </is>
       </c>
     </row>
@@ -704,39 +704,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
+          <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>29/12/20 1:00pm-2:00pm</t>
+          <t>30/12/20 11:55am-12:30pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case visited vineyard</t>
+          <t>Case caught the 11:55am bus from Lakes Entrance</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Leongatha</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>26/12/20 5:30pm-7:30pm</t>
+          <t>29/12/20 1:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case worked in store</t>
+          <t>Case visited vineyard</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>27/12/20 4:00pm-7:30pm</t>
+          <t>26/12/20 5:30pm-7:30pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -765,22 +765,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Leongatha</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
+          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>28/12/20 8:00pm-9:30pm</t>
+          <t>27/12/20 4:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case worked in store</t>
         </is>
       </c>
     </row>
@@ -792,17 +792,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
+          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>29/12/20 6:00pm-7:30pm</t>
+          <t>28/12/20 8:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Case attended restaurant</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
@@ -814,56 +814,56 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Metro Train - Pakenham line</t>
+          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/01/21 4:30am-5:00am</t>
+          <t>29/12/20 6:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Case caught train from Flinders St to Westall Station</t>
+          <t>Case attended restaurant</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Narre Warren</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tamarind 8  7b/420 Princes Highway, Narre Warren</t>
+          <t>Metro Train - Pakenham line</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>30/12/20, 6:30pm-7:00pm</t>
+          <t>01/01/21 4:30am-5:00am</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Case got take away</t>
+          <t>Case caught train from Flinders St to Westall Station</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nunawading</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Good Guys, 7/372 Whitehorse Road, Nunawading</t>
+          <t>Costco Moorabbin, 8 Chifley Drive, Moorabbin Airport, VIC 3194</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>29/12/20, 9:30am-10:00am</t>
+          <t>30/12/20 10:45am - 12:15pm</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -875,110 +875,198 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Woodlands Golf Club, 109 White Street, Mordialloc, VIC 3195</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>28/12/20 7:30pm-8:15pm</t>
+          <t>28/12/20 12:00pm - 6:00pm</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Case dined in restaurant</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Narre Warren</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MCG Zone 5 - The Great Southern Stand, Level 4, Bay Q18, Brunton Avenue</t>
+          <t>Tamarind 8  7b/420 Princes Highway, Narre Warren</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>27/12/20 12:30pm - 3:30pm</t>
+          <t>30/12/20, 6:30pm-7:00pm</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Case did not attend during infectious period but may have acquired their illness here</t>
+          <t>Case got take away</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sandringham Line</t>
+          <t>Nunawading</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Metro Train line Sandringham</t>
+          <t>Good Guys, 7/372 Whitehorse Road, Nunawading</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>28/12/20 7:00pm-7.50pm</t>
+          <t>29/12/20, 9:30am-10:00am</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Travelled by train from Sandringham Station to Parliament Station</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Oakleigh</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IKEA Springvale, 917 Princes Hwy</t>
+          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>30/12/20, 4:00pm-6:30pm</t>
+          <t>28/12/20 7:30pm-8:15pm</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Case shopped at store</t>
+          <t>Case dined in restaurant</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MCG Zone 5 - The Great Southern Stand, Level 4, Bay Q18, Brunton Avenue</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>27/12/20 12:30pm - 3:30pm</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Case did not attend during infectious period but may have acquired their illness here</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sandringham Line</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Metro Train line Sandringham</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>28/12/20 7:00pm-7.50pm</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Travelled by train from Sandringham Station to Parliament Station</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>Springvale</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>IKEA Springvale, 917 Princes Hwy</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>30/12/20, 4:00pm-6:30pm</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Case shopped at store</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Springvale</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Springvale Central,  268 Springvale Road</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>29/12/20, 11:00am-12:30pm</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Case shopped</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Wonthaggi</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Wonthaggi Plaza Shopping Centre, 2 Biggs Drive, Wonthaggi, VIC 3995</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>28/12/20 1:30pm - 2:30pm</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Kmart - shopped for 15 mins</t>
         </is>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,154 +413,154 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Camberwell</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sons of Mary Restaurant  14 Spink St, Brighton VIC 3186</t>
+          <t>Crown Nails  766 Riversdale Road, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>24/12/20 10:00am-11:05am</t>
+          <t>30/12/20 1:30pm-2:30pm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Case ate at restaurant</t>
+          <t>Case attended</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Camberwell</t>
+          <t>Caulfield</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Crown Nails  766 Riversdale Road, Camberwell VIC 3124</t>
+          <t>Metro Train - Frankston line</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>30/12/20 1:30pm-2:30pm</t>
+          <t>30/12/20 4:30pm-5:00pm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case attended</t>
+          <t>Case caught train from Caulfield to Cheltenham</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Caulfield</t>
+          <t>Clayton South</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Metro Train - Frankston line</t>
+          <t>Metro Train - Pakenham line</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>30/12/20 4:30pm-5:00pm</t>
+          <t>31/12/20 9:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Case caught train from Caulfield to Cheltenham</t>
+          <t>Case caught train from Westall Station to Flinders St.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Clayton South</t>
+          <t>Doveton</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Metro Train - Pakenham line</t>
+          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>31/12/20 9:00pm-9:30pm</t>
+          <t>26/12/20 6:30pm - 8:30pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case caught train from Westall Station to Flinders St.</t>
+          <t>Case attended English service</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Doveton</t>
+          <t>Emerald</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
+          <t>Lakeside Paddle Boats, Emerald Lake Park</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>26/12/20 6:30pm - 8:30pm</t>
+          <t>31/12/20 3:30pm-5:30pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Case attended English service</t>
+          <t>Case visited venue</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Emerald</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lakeside Paddle Boats, Emerald Lake Park</t>
+          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>31/12/20 3:30pm-5:30pm</t>
+          <t>29/12/20 9:30am-10:45am</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Case visited venue</t>
+          <t>Case ate in cafe</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hallam</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Coles Hallam, 2 Princes Domain Drive, Hallam, VIC 3803</t>
+          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>30/12/20 6:15am - 6:30am</t>
+          <t>29/12/20 7:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended carnival</t>
         </is>
       </c>
     </row>
@@ -572,17 +572,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>29/12/20 9:30am-10:45am</t>
+          <t>29/12/20 5:30pm-05:50pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case ate in cafe</t>
+          <t>Case in hotel bar</t>
         </is>
       </c>
     </row>
@@ -594,17 +594,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
+          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>29/12/20 7:00pm-9:30pm</t>
+          <t>29/12/20 3:30pm-04:30pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case attended carnival</t>
+          <t>Case visited pool area</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>29/12/20 5:30pm-05:50pm</t>
+          <t>30/12/20 9:30am-10:30am</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case in hotel bar</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
@@ -638,17 +638,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>29/12/20 3:30pm-04:30pm</t>
+          <t>29/12/20 2:30pm-5:50pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case visited pool area</t>
+          <t>Case attended site</t>
         </is>
       </c>
     </row>
@@ -660,17 +660,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>30/12/20 9:30am-10:30am</t>
+          <t>30/12/20 11:55am-12:30pm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case caught the 11:55am bus from Lakes Entrance</t>
         </is>
       </c>
     </row>
@@ -682,105 +682,105 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>29/12/20 2:30pm-5:50pm</t>
+          <t>29/12/20 1:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Case attended site</t>
+          <t>Case visited vineyard</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Leongatha</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
+          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>30/12/20 11:55am-12:30pm</t>
+          <t>26/12/20 5:30pm-7:30pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case caught the 11:55am bus from Lakes Entrance</t>
+          <t>Case worked in store</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Leongatha</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
+          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>29/12/20 1:00pm-2:00pm</t>
+          <t>27/12/20 4:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case visited vineyard</t>
+          <t>Case worked in store</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Leongatha</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>26/12/20 5:30pm-7:30pm</t>
+          <t>28/12/20 8:00pm-9:30pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case worked in store</t>
+          <t>Case attended cafe</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Leongatha</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>27/12/20 4:00pm-7:30pm</t>
+          <t>29/12/20 6:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case worked in store</t>
+          <t>Case attended restaurant</t>
         </is>
       </c>
     </row>
@@ -792,281 +792,171 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
+          <t>Metro Train - Pakenham line</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>28/12/20 8:00pm-9:30pm</t>
+          <t>01/01/21 4:30am-5:00am</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Case attended cafe</t>
+          <t>Case caught train from Flinders St to Westall Station</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Narre Warren</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
+          <t>Tamarind 8  7b/420 Princes Highway, Narre Warren</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>29/12/20 6:00pm-7:30pm</t>
+          <t>30/12/20, 6:30pm-7:00pm</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Case attended restaurant</t>
+          <t>Case got take away</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Nunawading</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Metro Train - Pakenham line</t>
+          <t>Good Guys, 7/372 Whitehorse Road, Nunawading</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/01/21 4:30am-5:00am</t>
+          <t>29/12/20, 9:30am-10:00am</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Case caught train from Flinders St to Westall Station</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Oakleigh</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Costco Moorabbin, 8 Chifley Drive, Moorabbin Airport, VIC 3194</t>
+          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>30/12/20 10:45am - 12:15pm</t>
+          <t>28/12/20 7:30pm-8:15pm</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case dined in restaurant</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club, 109 White Street, Mordialloc, VIC 3195</t>
+          <t>MCG Zone 5 - The Great Southern Stand, Level 4, Bay Q18, Brunton Avenue</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm - 6:00pm</t>
+          <t>27/12/20 12:30pm - 3:30pm</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case did not attend during infectious period but may have acquired their illness here</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Narre Warren</t>
+          <t>Sandringham Line</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tamarind 8  7b/420 Princes Highway, Narre Warren</t>
+          <t>Metro Train line Sandringham</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>30/12/20, 6:30pm-7:00pm</t>
+          <t>28/12/20 7:00pm-7.50pm</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Case got take away</t>
+          <t>Travelled by train from Sandringham Station to Parliament Station</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nunawading</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Good Guys, 7/372 Whitehorse Road, Nunawading</t>
+          <t>IKEA Springvale, 917 Princes Hwy</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>29/12/20, 9:30am-10:00am</t>
+          <t>30/12/20, 4:00pm-6:30pm</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Springvale Central,  268 Springvale Road</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>28/12/20 7:30pm-8:15pm</t>
+          <t>29/12/20, 11:00am-12:30pm</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Case dined in restaurant</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>MCG Zone 5 - The Great Southern Stand, Level 4, Bay Q18, Brunton Avenue</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>27/12/20 12:30pm - 3:30pm</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Case did not attend during infectious period but may have acquired their illness here</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Sandringham Line</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Metro Train line Sandringham</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>28/12/20 7:00pm-7.50pm</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Travelled by train from Sandringham Station to Parliament Station</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Springvale</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>IKEA Springvale, 917 Princes Hwy</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>30/12/20, 4:00pm-6:30pm</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Case shopped at store</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Springvale</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Springvale Central,  268 Springvale Road</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>29/12/20, 11:00am-12:30pm</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
           <t>Case shopped</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Wonthaggi</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Wonthaggi Plaza Shopping Centre, 2 Biggs Drive, Wonthaggi, VIC 3995</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>28/12/20 1:30pm - 2:30pm</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Kmart - shopped for 15 mins</t>
         </is>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -1,73 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64371CD-D315-4B5A-B2C3-193EC520915C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Exposure period</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Sunbury</t>
-  </si>
-  <si>
-    <t>Sunbury Square Shopping Centre, 2-28 Evans street, Sunbury</t>
-  </si>
-  <si>
-    <t>3:40pm - 4:30pm 5/2/2021</t>
-  </si>
-  <si>
-    <t>Case attended venue</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -82,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -101,24 +57,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -406,47 +353,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.265625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Site</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Exposure period</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Sunbury</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sunbury Square Shopping Centre, 2-28 Evans street, Sunbury</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3:40pm - 4:30pm 5/2/2021</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,20 +391,64 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Point Cook</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>The Coffeeologist Cafe, 70/300 Point Cook Rd , Point Cook VIC 3030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>11:00am - 11:40am 8/2/2021</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Point Cook</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The Coffeeologist Cafe, 70/300 Point Cook Rd, Point Cook VIC 3030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11:30am - 12:10pm 10/2/2021</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Sunbury</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Sunbury Square Shopping Centre, 2-28 Evans street, Sunbury</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>3:40pm - 4:30pm 5/2/2021</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Case attended venue</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -396,12 +396,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The Coffeeologist Cafe, 70/300 Point Cook Rd , Point Cook VIC 3030</t>
+          <t>The Coffeeologist Cafe  70/300 Point Cook Rd  Point Cook VIC 3030</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00am - 11:40am 8/2/2021</t>
+          <t>11:00am - 11:40am  8/2/2021</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -418,12 +418,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The Coffeeologist Cafe, 70/300 Point Cook Rd, Point Cook VIC 3030</t>
+          <t>The Coffeeologist Cafe  70/300 Point Cook Rd  Point Cook VIC 3030</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:30am - 12:10pm 10/2/2021</t>
+          <t>11:30am - 12:10pm  0/2/2021</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -440,7 +440,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sunbury Square Shopping Centre, 2-28 Evans street, Sunbury</t>
+          <t>Sunbury Square Shopping Centre  2-28 Evans St  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,17 +391,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Point Cook</t>
+          <t>Pascoe Vale</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The Coffeeologist Cafe  70/300 Point Cook Rd  Point Cook VIC 3030</t>
+          <t>Elite Swimming Pascoe Vale, 8 Attercliffe Avenue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00am - 11:40am  8/2/2021</t>
+          <t>4:30pm - 5:00pm  8/2/2021</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -413,17 +413,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Point Cook</t>
+          <t>Pascoe Vale</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The Coffeeologist Cafe  70/300 Point Cook Rd  Point Cook VIC 3030</t>
+          <t>Elite Swimming Pascoe Vale, 8 Attercliffe Avenue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:30am - 12:10pm  0/2/2021</t>
+          <t>5:30pm - 6:00pm  8/2/2021</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -435,20 +435,64 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Point Cook</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The Coffeeologist Cafe  70/300 Point Cook Rd  Point Cook VIC 3030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>11:00am - 11:40am  8/2/2021</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Point Cook</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The Coffeeologist Cafe  70/300 Point Cook Rd  Point Cook VIC 3030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>11:30am - 12:10pm  0/2/2021</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Sunbury</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Sunbury Square Shopping Centre  2-28 Evans St  Sunbury VIC 3429</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>3:40pm - 4:30pm 5/2/2021</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Case attended venue</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:30am - 12:10pm  0/2/2021</t>
+          <t>11:30am - 12:10pm  10/2/2021</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
